--- a/Plasma LF Review Data V1.0.xlsx
+++ b/Plasma LF Review Data V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GEN MCU" sheetId="1" r:id="rId1"/>
@@ -16,17 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여부의 Pin 추가 - ADC, GPIO EXIT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -96,6 +92,54 @@
   </si>
   <si>
     <t>GPIO Input Pin을 5V tolerant I/O Pin 사용 : FT or FTf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모전류가 낮아 기존 Pin-map 대로 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NPN TR 제거 - GPIO Pull-up 설정, Active Low</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO EXTI 만 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여부의 Pin 추가 - ADC, GPIO EXTI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Current transducer의 Vout 확인 - Power별로 Vout 측정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. OP-Amp trim-R 설정치 확인 - 사용하지 않을 것으로 보임</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +180,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -144,29 +188,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +387,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,181 +749,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E29"/>
+  <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="66.25" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
+    <col min="3" max="4" width="12.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="66.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11">
+        <v>43150</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43150</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43150</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="24">
+        <v>4</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43150</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="24">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>43150</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>43150</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <v>43150</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="24">
+        <v>6</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="24">
+        <v>7</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="24">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="24">
+        <v>9</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="24">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="24">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="24">
+        <v>12</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="24">
+        <v>13</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="24">
+        <v>14</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="24">
+        <v>15</v>
+      </c>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="24">
+        <v>16</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="24">
+        <v>17</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="24">
+        <v>18</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="24">
+        <v>19</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="24">
+        <v>20</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="24">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <v>43150</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="24">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="10">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="10">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="10">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="10">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="10">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="10">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="10">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="24">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="10">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="25">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="10">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
         <v>25</v>
       </c>
     </row>
@@ -664,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E11"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -678,18 +1061,18 @@
     <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -697,84 +1080,100 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="8"/>
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="6">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>8</v>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="26">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Plasma LF Review Data V1.0.xlsx
+++ b/Plasma LF Review Data V1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="GEN MCU" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>2. OP-Amp trim-R 설정치 확인 - 사용하지 않을 것으로 보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load Short 발생시 2차측 전압이 역으로 유기되는지 확인 필요 - Pipette dead 원인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -372,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -383,11 +387,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -445,9 +444,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -457,6 +472,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,7 +523,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +558,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -751,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,271 +785,271 @@
   <sheetData>
     <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:6" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="23">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>43150</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>2</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>43150</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>3</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>43150</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>4</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="12">
         <v>43150</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="15" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>5</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>6</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="18"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>7</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>8</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="19" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>9</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <v>10</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <v>11</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>12</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
+      <c r="B17" s="21">
         <v>13</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="18"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
+      <c r="B18" s="21">
         <v>14</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="18"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>15</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="24">
+      <c r="B20" s="21">
         <v>16</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <v>17</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="24">
+      <c r="B22" s="21">
         <v>18</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
+      <c r="B23" s="21">
         <v>19</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
+      <c r="B24" s="21">
         <v>20</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="18"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="24">
+      <c r="B25" s="21">
         <v>21</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="18"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="24">
+      <c r="B26" s="21">
         <v>22</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="18"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="24">
+      <c r="B27" s="21">
         <v>23</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="18"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="25">
+      <c r="B28" s="22">
         <v>24</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
@@ -1040,17 +1058,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E13"/>
+  <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1061,129 +1079,231 @@
     <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="24" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="6">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="28"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="6">
+      <c r="B8" s="25">
         <v>2</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="28" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>3</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="27" t="s">
         <v>32</v>
       </c>
+      <c r="E12" s="28"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
         <v>33</v>
       </c>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="30"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="30"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="30"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="30"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="30"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="30"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="30"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="30"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="30"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="30"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="30"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="30"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Plasma LF Review Data V1.0.xlsx
+++ b/Plasma LF Review Data V1.0.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GEN MCU" sheetId="1" r:id="rId1"/>
     <sheet name="GEN" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Ctrl PCB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,34 @@
   </si>
   <si>
     <t>Load Short 발생시 2차측 전압이 역으로 유기되는지 확인 필요 - Pipette dead 원인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회로 보강</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 부품을 SMT type 으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stepping motor Control 추가 - 2ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검토 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>압력 sensor 변경 검토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heater control 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불필요 block 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +212,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -372,11 +400,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -448,12 +550,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -463,6 +559,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -523,7 +643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,7 +678,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1068,7 +1188,7 @@
   <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1095,202 +1215,202 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="25">
+      <c r="B3" s="33">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="27" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="26"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="25">
+      <c r="B8" s="33">
         <v>2</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="25">
+      <c r="B12" s="33">
         <v>3</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="D12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="26"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="30"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="30"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="30"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="30"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="30"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="30"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="30"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="30"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
     </row>
     <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1309,12 +1429,212 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="26"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="34">
+        <v>2</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="34">
+        <v>3</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="28"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="28"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="28"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="28"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="28"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="28"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="28"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="28"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="28"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+    </row>
+    <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Plasma LF Review Data V1.0.xlsx
+++ b/Plasma LF Review Data V1.0.xlsx
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="GEN MCU" sheetId="1" r:id="rId1"/>
     <sheet name="GEN" sheetId="2" r:id="rId2"/>
-    <sheet name="Ctrl PCB" sheetId="3" r:id="rId3"/>
+    <sheet name="Ctrl MCU" sheetId="4" r:id="rId3"/>
+    <sheet name="Ctrl PCB" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +173,14 @@
   </si>
   <si>
     <t>불필요 block 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Over voltage protection 회로 추가 - Zener or TVS diode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,29 +568,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,7 +899,7 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -993,9 +1002,15 @@
       <c r="B9" s="21">
         <v>5</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="16"/>
+      <c r="C9" s="12">
+        <v>43169</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -1188,7 +1203,7 @@
   <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1215,10 +1230,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="33">
+      <c r="B3" s="39">
         <v>1</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="38" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -1229,8 +1244,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="33"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="38"/>
       <c r="D4" s="25" t="s">
         <v>8</v>
       </c>
@@ -1239,34 +1254,34 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="25" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="25" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="25" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="33">
+      <c r="B8" s="39">
         <v>2</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -1277,8 +1292,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="25" t="s">
         <v>14</v>
       </c>
@@ -1287,8 +1302,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="25" t="s">
         <v>16</v>
       </c>
@@ -1297,16 +1312,16 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="33">
+      <c r="B12" s="39">
         <v>3</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="38" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -1315,8 +1330,8 @@
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="33"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="25" t="s">
         <v>33</v>
       </c>
@@ -1429,10 +1444,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="65.5" customWidth="1"/>
+    <col min="6" max="6" width="60.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12">
+        <v>43169</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="21">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="21">
+        <v>3</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1459,10 +1548,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="34">
+      <c r="B3" s="32">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -1471,40 +1560,40 @@
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="25" t="s">
         <v>37</v>
       </c>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="25" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="25" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="25"/>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="34">
+      <c r="B8" s="32">
         <v>2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="33" t="s">
         <v>38</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -1513,34 +1602,34 @@
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="25"/>
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="34">
+      <c r="B12" s="32">
         <v>3</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="25"/>
       <c r="E13" s="26"/>
     </row>

--- a/Plasma LF Review Data V1.0.xlsx
+++ b/Plasma LF Review Data V1.0.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="GEN MCU" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Ctrl MCU" sheetId="4" r:id="rId3"/>
     <sheet name="Ctrl PCB" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,7 +180,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5V line에 TVS diode 추가 : SMBJ5.0CA
+Timer path에 Zener diode(BZT52C5V1S) 추가 - Pipette과 동일 부품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor control 추가 - Gas 조정용
+ - Femto에서 Motor 선정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motor control 추가 - 시료판 move용
+ - Femto에서 Motor 선정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heater control 추가
+ - Femto에서 Heater 선정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water flow sensing 추가
+ - Femto에서 water flow sensor 선정 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset IC 추가 - Voltage drop에 의한 MCU halt 방지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS3801L30 : Reset IC Vth=2.64V Delay=200msec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>High Voltage output에 대한 feedback 관련 line에 OVP 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Sensing용 ADC0에  Zener diode(BZT52C5V1S) 추가
+OP_OUT용 G17에  Zener diode(BZT52C5V1S) 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,12 +259,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="19">
@@ -487,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -509,15 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -591,6 +634,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -652,7 +731,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -687,7 +766,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -898,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,7 +987,7 @@
     <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
     <col min="3" max="4" width="12.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="66.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="57.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="69.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -931,260 +1010,278 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="20">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="45">
         <v>43150</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="48" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
+      <c r="B6" s="37">
         <v>2</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="38">
         <v>43150</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="41" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="21">
+      <c r="B7" s="37">
         <v>3</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="38">
         <v>43150</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="41" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="21">
+      <c r="B8" s="37">
         <v>4</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="38">
         <v>43150</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="21">
+    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="37">
         <v>5</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="38">
         <v>43169</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="21">
+      <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="21">
+      <c r="C10" s="38">
+        <v>43193</v>
+      </c>
+      <c r="D10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B11" s="37">
         <v>7</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
+      <c r="C11" s="38">
+        <v>43193</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21">
+      <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="16" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="21">
+      <c r="B13" s="18">
         <v>9</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="21">
+      <c r="B14" s="18">
         <v>10</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <v>11</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="21">
+      <c r="B16" s="18">
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="21">
+      <c r="B17" s="18">
         <v>13</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="21">
+      <c r="B18" s="18">
         <v>14</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="21">
+      <c r="B19" s="18">
         <v>15</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="21">
+      <c r="B20" s="18">
         <v>16</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="21">
+      <c r="B21" s="18">
         <v>17</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="21">
+      <c r="B22" s="18">
         <v>18</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="21">
+      <c r="B23" s="18">
         <v>19</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="21">
+      <c r="B24" s="18">
         <v>20</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="21">
+      <c r="B25" s="18">
         <v>21</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="21">
+      <c r="B26" s="18">
         <v>22</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="21">
+      <c r="B27" s="18">
         <v>23</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="15"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="22">
+      <c r="B28" s="19">
         <v>24</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="3">
@@ -1216,216 +1313,216 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="39">
+      <c r="B3" s="36">
         <v>1</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="39"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="23" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="39"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="39"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="25" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="25" t="s">
+      <c r="B7" s="36"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="26"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="39">
+      <c r="B8" s="36">
         <v>2</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="39"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="25" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="25" t="s">
+      <c r="B10" s="36"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="39"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="39">
+      <c r="B12" s="36">
         <v>3</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="26"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="39"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="26"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1444,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F7"/>
+  <dimension ref="B3:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1477,37 +1574,232 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>1</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>43169</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="D5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B6" s="18">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="21">
+      <c r="C6" s="9">
+        <v>43193</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B7" s="18">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="C7" s="9">
+        <v>43193</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B8" s="18">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>43193</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="B9" s="18">
+        <v>5</v>
+      </c>
+      <c r="C9" s="9">
+        <v>43193</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="18">
+        <v>6</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="18">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="18">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="18">
+        <v>9</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="18">
+        <v>10</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="18">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="18">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="18">
+        <v>13</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="18">
+        <v>14</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="18">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="18">
+        <v>16</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="18">
+        <v>17</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="18">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="18">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="18">
+        <v>20</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="18">
+        <v>21</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="18">
+        <v>22</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1521,7 +1813,7 @@
   <dimension ref="B1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1534,194 +1826,194 @@
   <sheetData>
     <row r="1" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="32">
+      <c r="B3" s="29">
         <v>1</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="23"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="25" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="25" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="25" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="32">
+      <c r="B8" s="29">
         <v>2</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="26"/>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="26"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="26"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="32">
+      <c r="B12" s="29">
         <v>3</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="26"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="28"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="26"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="28"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="28"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="28"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="28"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="28"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="28"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="28"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="28"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="28"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="28"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="28"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="28"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="28"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Plasma LF Review Data V1.0.xlsx
+++ b/Plasma LF Review Data V1.0.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
-    <sheet name="GEN MCU" sheetId="1" r:id="rId1"/>
-    <sheet name="GEN" sheetId="2" r:id="rId2"/>
-    <sheet name="Ctrl MCU" sheetId="4" r:id="rId3"/>
-    <sheet name="Ctrl PCB" sheetId="3" r:id="rId4"/>
+    <sheet name="Femto work" sheetId="5" r:id="rId1"/>
+    <sheet name="GEN MCU" sheetId="1" r:id="rId2"/>
+    <sheet name="GEN" sheetId="2" r:id="rId3"/>
+    <sheet name="Ctrl MCU" sheetId="4" r:id="rId4"/>
+    <sheet name="Ctrl PCB" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +228,30 @@
   <si>
     <t>Current Sensing용 ADC0에  Zener diode(BZT52C5V1S) 추가
 OP_OUT용 G17에  Zener diode(BZT52C5V1S) 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Touch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Program UI image 전달</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,6 +294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -629,48 +660,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -975,9 +1033,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="9" style="49"/>
+    <col min="8" max="8" width="48.125" customWidth="1"/>
+    <col min="9" max="9" width="33.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="53">
+        <v>1</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="55">
+        <v>43194</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="25">
+        <v>2</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
+        <v>3</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
+        <v>4</v>
+      </c>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="25">
+        <v>5</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="25">
+        <v>6</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="25">
+        <v>7</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <v>8</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="23"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
+        <v>9</v>
+      </c>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
+        <v>10</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="25">
+        <v>11</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="25">
+        <v>12</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
+        <v>13</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
+        <v>14</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="25">
+        <v>15</v>
+      </c>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="25">
+        <v>16</v>
+      </c>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="25">
+        <v>17</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="25">
+        <v>18</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="25">
+        <v>19</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="25">
+        <v>20</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
+        <v>21</v>
+      </c>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="23"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="25">
+        <v>22</v>
+      </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="25">
+        <v>23</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="25">
+        <v>24</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="25">
+        <v>25</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1010,121 +1431,121 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="44">
+      <c r="B5" s="42">
         <v>1</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>43150</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B6" s="37">
+      <c r="B6" s="35">
         <v>2</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="36">
         <v>43150</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="37">
+      <c r="B7" s="35">
         <v>3</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="36">
         <v>43150</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="39" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="37">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="36">
         <v>43150</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B9" s="37">
+      <c r="B9" s="35">
         <v>5</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="36">
         <v>43169</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="43" t="s">
+      <c r="F9" s="41" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="37">
+      <c r="B10" s="35">
         <v>6</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="36">
         <v>43193</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="41" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="B11" s="37">
+      <c r="B11" s="35">
         <v>7</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="36">
         <v>43193</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="41" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1295,7 +1716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>
@@ -1327,10 +1748,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="36">
+      <c r="B3" s="48">
         <v>1</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="47" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -1341,8 +1762,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="35"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
@@ -1351,34 +1772,34 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="36"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="36"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="36"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="47"/>
       <c r="D7" s="22" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="36">
+      <c r="B8" s="48">
         <v>2</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -1389,8 +1810,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="36"/>
-      <c r="C9" s="35"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
@@ -1399,8 +1820,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="36"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="47"/>
       <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
@@ -1409,16 +1830,16 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="47"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="36">
+      <c r="B12" s="48">
         <v>3</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="47" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="22" t="s">
@@ -1427,8 +1848,8 @@
       <c r="E12" s="23"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="22" t="s">
         <v>33</v>
       </c>
@@ -1539,7 +1960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F26"/>
   <sheetViews>
@@ -1808,7 +2229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E28"/>
   <sheetViews>

--- a/Plasma LF Review Data V1.0.xlsx
+++ b/Plasma LF Review Data V1.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NPN TR 제거 - GPIO Pull-up 설정, Active Low</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -252,6 +248,14 @@
   </si>
   <si>
     <t>Program UI image 전달</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H/W ID 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -696,12 +700,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,6 +727,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1036,7 +1049,7 @@
   <dimension ref="B4:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1045,69 +1058,69 @@
     <col min="3" max="3" width="11.25" customWidth="1"/>
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="9" style="49"/>
+    <col min="7" max="7" width="9" style="47"/>
     <col min="8" max="8" width="48.125" customWidth="1"/>
     <col min="9" max="9" width="33.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="G5" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="51">
         <v>1</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="52" t="s">
+      <c r="C6" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="52" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="53">
-        <v>1</v>
-      </c>
-      <c r="C6" s="54" t="s">
+      <c r="E6" s="53">
+        <v>43194</v>
+      </c>
+      <c r="F6" s="53"/>
+      <c r="G6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="55">
-        <v>43194</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="57"/>
+      <c r="I6" s="55"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="58"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="22"/>
       <c r="I7" s="23"/>
     </row>
@@ -1115,11 +1128,11 @@
       <c r="B8" s="25">
         <v>3</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="58"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="22"/>
       <c r="I8" s="23"/>
     </row>
@@ -1127,11 +1140,11 @@
       <c r="B9" s="25">
         <v>4</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="58"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="22"/>
       <c r="I9" s="23"/>
     </row>
@@ -1139,11 +1152,11 @@
       <c r="B10" s="25">
         <v>5</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="58"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="22"/>
       <c r="I10" s="23"/>
     </row>
@@ -1151,11 +1164,11 @@
       <c r="B11" s="25">
         <v>6</v>
       </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="58"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="22"/>
       <c r="I11" s="23"/>
     </row>
@@ -1163,11 +1176,11 @@
       <c r="B12" s="25">
         <v>7</v>
       </c>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="58"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="22"/>
       <c r="I12" s="23"/>
     </row>
@@ -1175,11 +1188,11 @@
       <c r="B13" s="25">
         <v>8</v>
       </c>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="58"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="22"/>
       <c r="I13" s="23"/>
     </row>
@@ -1187,11 +1200,11 @@
       <c r="B14" s="25">
         <v>9</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="58"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="22"/>
       <c r="I14" s="23"/>
     </row>
@@ -1199,11 +1212,11 @@
       <c r="B15" s="25">
         <v>10</v>
       </c>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="58"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="22"/>
       <c r="I15" s="23"/>
     </row>
@@ -1211,11 +1224,11 @@
       <c r="B16" s="25">
         <v>11</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="58"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
@@ -1223,11 +1236,11 @@
       <c r="B17" s="25">
         <v>12</v>
       </c>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="58"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="22"/>
       <c r="I17" s="23"/>
     </row>
@@ -1235,11 +1248,11 @@
       <c r="B18" s="25">
         <v>13</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="58"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="22"/>
       <c r="I18" s="23"/>
     </row>
@@ -1247,11 +1260,11 @@
       <c r="B19" s="25">
         <v>14</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="58"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="22"/>
       <c r="I19" s="23"/>
     </row>
@@ -1259,11 +1272,11 @@
       <c r="B20" s="25">
         <v>15</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="58"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
@@ -1271,11 +1284,11 @@
       <c r="B21" s="25">
         <v>16</v>
       </c>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="58"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="22"/>
       <c r="I21" s="23"/>
     </row>
@@ -1283,11 +1296,11 @@
       <c r="B22" s="25">
         <v>17</v>
       </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="58"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="22"/>
       <c r="I22" s="23"/>
     </row>
@@ -1295,11 +1308,11 @@
       <c r="B23" s="25">
         <v>18</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="58"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="56"/>
       <c r="H23" s="22"/>
       <c r="I23" s="23"/>
     </row>
@@ -1307,11 +1320,11 @@
       <c r="B24" s="25">
         <v>19</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="58"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="56"/>
       <c r="H24" s="22"/>
       <c r="I24" s="23"/>
     </row>
@@ -1319,11 +1332,11 @@
       <c r="B25" s="25">
         <v>20</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="58"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="56"/>
       <c r="H25" s="22"/>
       <c r="I25" s="23"/>
     </row>
@@ -1331,11 +1344,11 @@
       <c r="B26" s="25">
         <v>21</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="58"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="22"/>
       <c r="I26" s="23"/>
     </row>
@@ -1343,11 +1356,11 @@
       <c r="B27" s="25">
         <v>22</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="58"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="22"/>
       <c r="I27" s="23"/>
     </row>
@@ -1355,11 +1368,11 @@
       <c r="B28" s="25">
         <v>23</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="58"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="22"/>
       <c r="I28" s="23"/>
     </row>
@@ -1367,11 +1380,11 @@
       <c r="B29" s="25">
         <v>24</v>
       </c>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="58"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="22"/>
       <c r="I29" s="23"/>
     </row>
@@ -1379,11 +1392,11 @@
       <c r="B30" s="25">
         <v>25</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="60"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="27"/>
       <c r="I30" s="28"/>
     </row>
@@ -1399,14 +1412,15 @@
   <dimension ref="B3:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="3" customWidth="1"/>
-    <col min="3" max="4" width="12.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="62" customWidth="1"/>
     <col min="5" max="5" width="66.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="69.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -1427,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -1441,10 +1455,10 @@
         <v>22</v>
       </c>
       <c r="E5" s="45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1478,7 +1492,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
@@ -1495,7 +1509,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1509,10 +1523,10 @@
         <v>22</v>
       </c>
       <c r="E9" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="41" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="41" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
@@ -1526,10 +1540,10 @@
         <v>22</v>
       </c>
       <c r="E10" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="41" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="41" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="33" x14ac:dyDescent="0.3">
@@ -1543,20 +1557,24 @@
         <v>22</v>
       </c>
       <c r="E11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="41" t="s">
         <v>52</v>
-      </c>
-      <c r="F11" s="41" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="18">
         <v>8</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="9">
+        <v>43196</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="E12" s="13" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -1565,7 +1583,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="13"/>
       <c r="F13" s="12"/>
     </row>
@@ -1574,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="13"/>
       <c r="F14" s="12"/>
     </row>
@@ -1583,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="13"/>
       <c r="F15" s="12"/>
     </row>
@@ -1592,7 +1610,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="13"/>
       <c r="F16" s="12"/>
     </row>
@@ -1601,7 +1619,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="13"/>
       <c r="F17" s="12"/>
     </row>
@@ -1610,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="13"/>
       <c r="F18" s="12"/>
     </row>
@@ -1619,7 +1637,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="13"/>
       <c r="F19" s="12"/>
     </row>
@@ -1628,7 +1646,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="13"/>
       <c r="F20" s="12"/>
     </row>
@@ -1637,7 +1655,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="13"/>
       <c r="F21" s="12"/>
     </row>
@@ -1646,7 +1664,7 @@
         <v>18</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="13"/>
       <c r="F22" s="12"/>
     </row>
@@ -1655,7 +1673,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="13"/>
       <c r="F23" s="12"/>
     </row>
@@ -1664,7 +1682,7 @@
         <v>20</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="13"/>
       <c r="F24" s="12"/>
     </row>
@@ -1673,7 +1691,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="13"/>
       <c r="F25" s="12"/>
     </row>
@@ -1682,7 +1700,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="13"/>
       <c r="F26" s="12"/>
     </row>
@@ -1691,7 +1709,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="13"/>
       <c r="F27" s="12"/>
     </row>
@@ -1700,7 +1718,7 @@
         <v>24</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
     </row>
@@ -1748,10 +1766,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="48">
+      <c r="B3" s="61">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="60" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="22" t="s">
@@ -1762,8 +1780,8 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="48"/>
-      <c r="C4" s="47"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
@@ -1772,34 +1790,34 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="48"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="23"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="48"/>
-      <c r="C6" s="47"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="23"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="48"/>
-      <c r="C7" s="47"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="48">
+      <c r="B8" s="61">
         <v>2</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="60" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="24" t="s">
@@ -1810,8 +1828,8 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="47"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
@@ -1820,8 +1838,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="22" t="s">
         <v>16</v>
       </c>
@@ -1830,28 +1848,28 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
-      <c r="C11" s="47"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="22"/>
       <c r="E11" s="23"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="48">
+      <c r="B12" s="61">
         <v>3</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E12" s="23"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="61"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="22" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="23"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="48"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="22" t="s">
-        <v>33</v>
       </c>
       <c r="E13" s="23"/>
     </row>
@@ -1965,7 +1983,7 @@
   <dimension ref="B3:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1991,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -2002,10 +2020,10 @@
         <v>43169</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="8"/>
     </row>
@@ -2017,10 +2035,10 @@
         <v>43193</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>45</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>46</v>
       </c>
       <c r="F6" s="12"/>
     </row>
@@ -2032,10 +2050,10 @@
         <v>43193</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="12"/>
     </row>
@@ -2047,10 +2065,10 @@
         <v>43193</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="12"/>
     </row>
@@ -2062,10 +2080,10 @@
         <v>43193</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" s="12"/>
     </row>
@@ -2073,18 +2091,30 @@
       <c r="B10" s="18">
         <v>6</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
+      <c r="C10" s="9">
+        <v>43196</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="18">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="C11" s="9">
+        <v>43196</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="12"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
@@ -2265,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>36</v>
       </c>
       <c r="E3" s="23"/>
     </row>
@@ -2276,7 +2306,7 @@
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="23"/>
     </row>
@@ -2284,7 +2314,7 @@
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
       <c r="D5" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="23"/>
     </row>
@@ -2292,7 +2322,7 @@
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="23"/>
     </row>
@@ -2307,10 +2337,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>38</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>39</v>
       </c>
       <c r="E8" s="23"/>
     </row>
